--- a/Data/Pages/dlgTruckInsurance_pagPriceOption.xlsx
+++ b/Data/Pages/dlgTruckInsurance_pagPriceOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80354F-9479-43CF-8624-7CB221BCDB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11674BE-AF50-4B2F-B4DA-7197484A66E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="696" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2688" yWindow="2016" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -84,15 +84,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>id=selectsilver</t>
-  </si>
-  <si>
-    <t>id=selectgold</t>
-  </si>
-  <si>
-    <t>id=selectultimate</t>
-  </si>
-  <si>
     <t>id=viewquote</t>
   </si>
   <si>
@@ -109,6 +100,15 @@
   </si>
   <si>
     <t>&lt;CHECK&gt;</t>
+  </si>
+  <si>
+    <t>*css=label &gt;&gt; css=[value=Silver]</t>
+  </si>
+  <si>
+    <t>*css=label &gt;&gt; css=[value=Gold]</t>
+  </si>
+  <si>
+    <t>*css=label &gt;&gt; css=[value=Ultimate]</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,28 +559,28 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>18</v>
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
